--- a/code/src/org/ebiquity/data/permAnalysis/resultsPermAnalysis.xlsx
+++ b/code/src/org/ebiquity/data/permAnalysis/resultsPermAnalysis.xlsx
@@ -1,22 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28609"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AndroidAnalytics\code\src\org\ebiquity\data\permAnalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prajit/Work/AndroidAnalytics/code/src/org/ebiquity/data/permAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="15480" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15480" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Score" sheetId="5" r:id="rId1"/>
     <sheet name="Recall" sheetId="4" r:id="rId2"/>
     <sheet name="Precision" sheetId="3" r:id="rId3"/>
     <sheet name="FScore" sheetId="2" r:id="rId4"/>
+    <sheet name="Data 1" sheetId="10" r:id="rId5"/>
+    <sheet name="Data 2" sheetId="9" r:id="rId6"/>
+    <sheet name="ConfusionMatrix" sheetId="7" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">ConfusionMatrix!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Data 1'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Data 2'!$A$1:$C$1</definedName>
+  </definedNames>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -30,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="25">
   <si>
     <t>AdaBoost</t>
   </si>
@@ -67,12 +75,51 @@
   <si>
     <t>Value</t>
   </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>Fscore</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Value positive</t>
+  </si>
+  <si>
+    <t>Value negative</t>
+  </si>
+  <si>
+    <t>Predicted positive</t>
+  </si>
+  <si>
+    <t>Predicted negative</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +272,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -528,7 +582,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="48">
+  <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -577,14 +631,20 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="48">
+  <cellStyles count="52">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -616,6 +676,8 @@
     <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -624,6 +686,8 @@
     <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -648,7 +712,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -684,6 +748,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -718,9 +783,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.221531556128299"/>
-          <c:y val="7.3802473792572307E-2"/>
-          <c:w val="0.74246180392499495"/>
-          <c:h val="0.81704920866927599"/>
+          <c:y val="0.0738024737925723"/>
+          <c:w val="0.742461803924995"/>
+          <c:h val="0.817049208669276"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -816,8 +881,9 @@
             <c:separator>
 </c:separator>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -881,39 +947,39 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.35674920799999998</c:v>
+                  <c:v>0.356749208</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.41748448399999999</c:v>
+                  <c:v>0.417484484</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.41748448399999999</c:v>
+                  <c:v>0.417484484</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.78946328099999996</c:v>
+                  <c:v>0.789463281</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.87812478199999999</c:v>
+                  <c:v>0.878124782</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.89154988400000001</c:v>
+                  <c:v>0.891549884</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.90271106899999998</c:v>
+                  <c:v>0.902711069</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.90275195200000002</c:v>
+                  <c:v>0.902751952</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.91188019600000003</c:v>
+                  <c:v>0.911880196</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.92403126999999996</c:v>
+                  <c:v>0.92403127</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7D50-4459-A7E3-FBF318DA25FA}"/>
             </c:ext>
@@ -930,11 +996,11 @@
         </c:dLbls>
         <c:gapWidth val="227"/>
         <c:overlap val="-48"/>
-        <c:axId val="-1962599328"/>
-        <c:axId val="-1962597008"/>
+        <c:axId val="-126391936"/>
+        <c:axId val="-126389616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1962599328"/>
+        <c:axId val="-126391936"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -981,7 +1047,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1962597008"/>
+        <c:crossAx val="-126389616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -989,7 +1055,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1962597008"/>
+        <c:axId val="-126389616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1031,6 +1097,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1090,7 +1157,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1962599328"/>
+        <c:crossAx val="-126391936"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1705,7 +1772,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2025,13 +2092,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -2039,7 +2104,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2047,7 +2112,7 @@
         <v>0.89209621993127097</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2055,7 +2120,7 @@
         <v>0.87938144329896895</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2063,7 +2128,7 @@
         <v>0.57302405498281705</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2071,7 +2136,7 @@
         <v>0.90309278350515398</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2079,7 +2144,7 @@
         <v>0.90292096219931195</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2087,7 +2152,7 @@
         <v>0.47577319587628802</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2095,7 +2160,7 @@
         <v>0.91185567010309199</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2103,7 +2168,7 @@
         <v>0.92405498281786902</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2111,7 +2176,7 @@
         <v>0.80120274914089296</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2128,13 +2193,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -2142,7 +2205,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2150,7 +2213,7 @@
         <v>0.89209622</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2158,7 +2221,7 @@
         <v>0.87938144299999998</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2166,7 +2229,7 @@
         <v>0.57302405499999998</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2174,7 +2237,7 @@
         <v>0.90309278400000004</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2182,7 +2245,7 @@
         <v>0.90292096200000005</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2190,7 +2253,7 @@
         <v>0.47577319600000001</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2198,7 +2261,7 @@
         <v>0.91185567000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2206,7 +2269,7 @@
         <v>0.924054983</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -2214,7 +2277,7 @@
         <v>0.80120274899999999</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -2235,9 +2298,9 @@
       <selection activeCell="B11" sqref="A1:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -2245,7 +2308,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2253,7 +2316,7 @@
         <v>0.89246869399999995</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2261,7 +2324,7 @@
         <v>0.88165440299999998</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2269,7 +2332,7 @@
         <v>0.32835656800000002</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2277,7 +2340,7 @@
         <v>0.90328731900000003</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2285,7 +2348,7 @@
         <v>0.90279944300000003</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2293,7 +2356,7 @@
         <v>0.74575642600000003</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2301,7 +2364,7 @@
         <v>0.91191134399999996</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2309,7 +2372,7 @@
         <v>0.92401556600000001</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -2317,7 +2380,7 @@
         <v>0.83327306300000004</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -2334,15 +2397,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -2350,7 +2413,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2358,7 +2421,7 @@
         <v>0.35674920799999998</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2366,7 +2429,7 @@
         <v>0.41748448399999999</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -2374,7 +2437,7 @@
         <v>0.41748448399999999</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2382,7 +2445,7 @@
         <v>0.78946328099999996</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -2390,7 +2453,7 @@
         <v>0.87812478199999999</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -2398,7 +2461,7 @@
         <v>0.89154988400000001</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -2406,7 +2469,7 @@
         <v>0.90271106899999998</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -2414,7 +2477,7 @@
         <v>0.90275195200000002</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -2422,7 +2485,7 @@
         <v>0.91188019600000003</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -2437,4 +2500,1252 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.91923010800000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.91923010800000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.91922211600000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.91921500599999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.90702869900000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.90702869900000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.90692166200000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.90690954899999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.90649857599999994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.90507379799999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.90479463800000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.90479463800000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.89952342500000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.89946726200000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.89946726200000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.89914707100000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.88107922299999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.88107922299999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.88089213399999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.88086286300000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.87718451799999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.87560486900000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.87076817299999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.87076817299999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0.86852604799999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0.86832177899999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0.86767485799999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0.86767485799999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0.73165654999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0.57020106500000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0.57020106500000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0.57020106500000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="5">
+        <v>0.57020106500000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0.46262244400000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="5">
+        <v>0.46262244400000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="5">
+        <v>0.414124359</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="5">
+        <v>0.414124359</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="5">
+        <v>0.32925824599999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="5">
+        <v>0.32512925500000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="5">
+        <v>0.32512925500000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C1">
+    <sortState ref="A2:C41">
+      <sortCondition descending="1" ref="C1:C41"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4">
+        <v>3164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="4">
+        <v>3318</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="4">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="4">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="4">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="4">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="4">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="4">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="4">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="4">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="4">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="4">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="4">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="4">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="4">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="4">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="4">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="4">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="4">
+        <v>3085</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="4">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="4">
+        <v>3318</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="4">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="4">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="4">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="4">
+        <v>3006</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="4">
+        <v>3082</v>
+      </c>
+      <c r="C2" s="4">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="4">
+        <v>349</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3164</v>
+      </c>
+      <c r="C6" s="4">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="4">
+        <v>598</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="4">
+        <v>3318</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="4">
+        <v>2501</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="4">
+        <v>3072</v>
+      </c>
+      <c r="C14" s="4">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="4">
+        <v>295</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="4">
+        <v>2753</v>
+      </c>
+      <c r="C18" s="4">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="4">
+        <v>205</v>
+      </c>
+      <c r="C19" s="4">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="4">
+        <v>202</v>
+      </c>
+      <c r="C22" s="4">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="4">
+        <v>11</v>
+      </c>
+      <c r="C23" s="4">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="4">
+        <v>2968</v>
+      </c>
+      <c r="C26" s="4">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="4">
+        <v>204</v>
+      </c>
+      <c r="C27" s="4">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="4">
+        <v>3085</v>
+      </c>
+      <c r="C30" s="4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="4">
+        <v>237</v>
+      </c>
+      <c r="C31" s="4">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="4">
+        <v>3318</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="4">
+        <v>2501</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="4">
+        <v>3006</v>
+      </c>
+      <c r="C38">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="4">
+        <v>380</v>
+      </c>
+      <c r="C39" s="4">
+        <v>2121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/code/src/org/ebiquity/data/permAnalysis/resultsPermAnalysis.xlsx
+++ b/code/src/org/ebiquity/data/permAnalysis/resultsPermAnalysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15480" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15480" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Score" sheetId="5" r:id="rId1"/>
@@ -21,9 +21,9 @@
     <sheet name="ConfusionMatrix" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">ConfusionMatrix!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Data 1'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Data 2'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">ConfusionMatrix!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Data 1'!$A$1:$C$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Data 2'!$A$1:$C$41</definedName>
   </definedNames>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="29">
   <si>
     <t>AdaBoost</t>
   </si>
@@ -103,22 +103,37 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Value positive</t>
-  </si>
-  <si>
-    <t>Value negative</t>
-  </si>
-  <si>
     <t>Predicted positive</t>
   </si>
   <si>
     <t>Predicted negative</t>
+  </si>
+  <si>
+    <t>predicted</t>
+  </si>
+  <si>
+    <t>classifier</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>F1Score</t>
+  </si>
+  <si>
+    <t>Condition positive</t>
+  </si>
+  <si>
+    <t>Condition negative</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -639,10 +654,10 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="52">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -726,28 +741,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Roboto Light" panose="02000000000000000000" pitchFamily="2" charset="0"/>
-                <a:ea typeface="Roboto Light" panose="02000000000000000000" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Roboto Light" panose="02000000000000000000" pitchFamily="2" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>FScore - Malware detection</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -762,13 +755,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Roboto Light" panose="02000000000000000000" pitchFamily="2" charset="0"/>
-              <a:ea typeface="Roboto Light" panose="02000000000000000000" pitchFamily="2" charset="0"/>
-              <a:cs typeface="Roboto Light" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -777,17 +773,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.221531556128299"/>
-          <c:y val="0.0738024737925723"/>
-          <c:w val="0.742461803924995"/>
-          <c:h val="0.817049208669276"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
@@ -833,9 +819,8 @@
               </a:gsLst>
               <a:lin ang="5400000" scaled="0"/>
             </a:gradFill>
-            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln>
               <a:noFill/>
-              <a:miter lim="800000"/>
             </a:ln>
             <a:effectLst>
               <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
@@ -846,96 +831,40 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Roboto Light" panose="02000000000000000000" pitchFamily="2" charset="0"/>
-                    <a:ea typeface="Roboto Light" panose="02000000000000000000" pitchFamily="2" charset="0"/>
-                    <a:cs typeface="Roboto Light" panose="02000000000000000000" pitchFamily="2" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:separator>
-</c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>FScore!$A$2:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Naive Bayes</c:v>
+                  <c:v>Neural Net</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Linear SVM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nearest Neighbors</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AdaBoost</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>RBF SVM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Decision Tree</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Logistic Regression</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Dummy</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="8">
                   <c:v>Random Forest</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>RBF SVM</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Decision Tree</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>AdaBoost</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Linear SVM</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Logistic Regression</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Nearest Neighbors</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>Neural Net</c:v>
+                  <c:v>Naive Bayes</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -947,80 +876,126 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.356749208</c:v>
+                  <c:v>0.919222116</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.417484484</c:v>
+                  <c:v>0.906909549</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.417484484</c:v>
+                  <c:v>0.905073798</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.789463281</c:v>
+                  <c:v>0.899147071</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.878124782</c:v>
+                  <c:v>0.880862863</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.891549884</c:v>
+                  <c:v>0.868526048</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.902711069</c:v>
+                  <c:v>0.868321779</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.902751952</c:v>
+                  <c:v>0.414124359</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.911880196</c:v>
+                  <c:v>0.414124359</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.92403127</c:v>
+                  <c:v>0.329258246</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7D50-4459-A7E3-FBF318DA25FA}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="227"/>
-        <c:overlap val="-48"/>
-        <c:axId val="-126391936"/>
-        <c:axId val="-126389616"/>
+        <c:gapWidth val="115"/>
+        <c:overlap val="-20"/>
+        <c:axId val="1817119808"/>
+        <c:axId val="1817122128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-126391936"/>
+        <c:axId val="1817119808"/>
         <c:scaling>
-          <c:orientation val="maxMin"/>
+          <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1817122128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1817122128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="9525">
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1035,130 +1010,23 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Roboto Light" panose="02000000000000000000" pitchFamily="2" charset="0"/>
-                <a:ea typeface="Roboto Light" panose="02000000000000000000" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Roboto Light" panose="02000000000000000000" pitchFamily="2" charset="0"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-126389616"/>
+        <c:crossAx val="1817119808"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-126389616"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Roboto Light" panose="02000000000000000000" pitchFamily="2" charset="0"/>
-                    <a:ea typeface="Roboto Light" panose="02000000000000000000" pitchFamily="2" charset="0"/>
-                    <a:cs typeface="Roboto Light" panose="02000000000000000000" pitchFamily="2" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>FScore</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Roboto Light" panose="02000000000000000000" pitchFamily="2" charset="0"/>
-                  <a:ea typeface="Roboto Light" panose="02000000000000000000" pitchFamily="2" charset="0"/>
-                  <a:cs typeface="Roboto Light" panose="02000000000000000000" pitchFamily="2" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Roboto Light" panose="02000000000000000000" pitchFamily="2" charset="0"/>
-                <a:ea typeface="Roboto Light" panose="02000000000000000000" pitchFamily="2" charset="0"/>
-                <a:cs typeface="Roboto Light" panose="02000000000000000000" pitchFamily="2" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-126391936"/>
-        <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -1193,14 +1061,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1600" b="0" i="0">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:latin typeface="Roboto Light" panose="02000000000000000000" pitchFamily="2" charset="0"/>
-          <a:ea typeface="Roboto Light" panose="02000000000000000000" pitchFamily="2" charset="0"/>
-          <a:cs typeface="Roboto Light" panose="02000000000000000000" pitchFamily="2" charset="0"/>
-        </a:defRPr>
+        <a:defRPr/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1254,15 +1115,15 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="224">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="341">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1273,10 +1134,21 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
@@ -1284,7 +1156,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1308,8 +1180,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1319,71 +1191,60 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="35000"/>
-          <a:lumOff val="65000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1395,29 +1256,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -1426,6 +1268,26 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointWireframe>
@@ -1435,18 +1297,20 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1461,18 +1325,17 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1481,7 +1344,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1500,14 +1363,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1519,7 +1382,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -1527,16 +1390,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMajor>
@@ -1545,16 +1409,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1563,14 +1428,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1582,7 +1447,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1602,26 +1467,26 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1630,10 +1495,21 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1641,7 +1517,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1665,7 +1541,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1800" b="0" kern="1200" cap="none" spc="50" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1674,14 +1550,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1691,8 +1566,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1708,14 +1583,13 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1725,20 +1599,10 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1746,7 +1610,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -1757,25 +1621,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3175</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>869950</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2092,96 +1950,102 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.91923010800000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.90702869900000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.90479463800000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0.89209621993127097</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B5" s="4">
+        <v>0.89946726200000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.88107922299999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0.87938144329896895</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B7" s="4">
+        <v>0.87076817299999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.86767485799999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0.57302405498281705</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>0.90309278350515398</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0.90292096219931195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B9" s="4">
+        <v>0.57020106500000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.57020106500000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0.47577319587628802</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0.91185567010309199</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0.92405498281786902</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>0.80120274914089296</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>0.57302405498281705</v>
+      <c r="B11" s="4">
+        <v>0.46262244400000002</v>
       </c>
     </row>
   </sheetData>
@@ -2196,93 +2060,97 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.91923010800000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.90702869900000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.90479463800000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
-        <v>0.89209622</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="B5" s="4">
+        <v>0.89946726200000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.88107922299999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>0.87938144299999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="B7" s="4">
+        <v>0.87076817299999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.86767485799999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>0.57302405499999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.90309278400000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.90292096200000005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="B9" s="4">
+        <v>0.57020106500000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.57020106500000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
-        <v>0.47577319600000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0.91185567000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0.924054983</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0.80120274899999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0.57302405499999998</v>
+      <c r="B11" s="4">
+        <v>0.46262244400000002</v>
       </c>
     </row>
   </sheetData>
@@ -2295,97 +2163,101 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="A1:B11"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.91921500599999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.90692166200000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.90649857599999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
-        <v>0.89246869399999995</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="B5" s="4">
+        <v>0.89952342500000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.88089213399999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>0.88165440299999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="B7" s="4">
+        <v>0.87718451799999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.87560486900000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.73165654999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>0.32835656800000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.90328731900000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.90279944300000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.74575642600000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0.91191134399999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0.92401556600000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0.83327306300000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="B10" s="4">
+        <v>0.32512925500000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
-        <v>0.32835656800000002</v>
+      <c r="B11" s="4">
+        <v>0.32512925500000001</v>
       </c>
     </row>
   </sheetData>
@@ -2401,102 +2273,99 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.91922211600000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.90690954899999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.90507379799999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.89914707100000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.88086286300000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.86852604799999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.86832177899999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.414124359</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.414124359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
-        <v>0.35674920799999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.41748448399999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.41748448399999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.78946328099999996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.87812478199999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.89154988400000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.90271106899999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.90275195200000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.91188019600000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.92403126999999996</v>
+      <c r="B11" s="4">
+        <v>0.32925824599999998</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B11">
-    <sortCondition ref="B2:B11"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2517,7 +2386,7 @@
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -2527,452 +2396,452 @@
       <c r="B1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>0.91923010800000005</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>0.91923010800000005</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>0.91922211600000003</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>0.91921500599999995</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>0.90702869900000005</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>0.90702869900000005</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>0.90692166200000002</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>0.90690954899999998</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>0.90649857599999994</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>0.90507379799999998</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>0.90479463800000004</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>0.90479463800000004</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>0.89952342500000004</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>0.89946726200000005</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>0.89946726200000005</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>0.89914707100000002</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>0.88107922299999997</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>0.88107922299999997</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>0.88089213399999999</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>0.88086286300000005</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>0.87718451799999997</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>0.87560486900000001</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <v>0.87076817299999998</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <v>0.87076817299999998</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <v>0.86852604799999999</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="4">
         <v>0.86832177899999996</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="4">
         <v>0.86767485799999999</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="4">
         <v>0.86767485799999999</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="4">
         <v>0.73165654999999996</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="4">
         <v>0.57020106500000001</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="4">
         <v>0.57020106500000001</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="4">
         <v>0.57020106500000001</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="4">
         <v>0.57020106500000001</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="4">
         <v>0.46262244400000002</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="4">
         <v>0.46262244400000002</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="4">
         <v>0.414124359</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="4">
         <v>0.414124359</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="4">
         <v>0.32925824599999998</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="4">
         <v>0.32512925500000001</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="4">
         <v>0.32512925500000001</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1">
+  <autoFilter ref="A1:C41">
     <sortState ref="A2:C41">
       <sortCondition descending="1" ref="C1:C41"/>
     </sortState>
@@ -2983,9 +2852,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -3011,741 +2880,1025 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>2152</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>3082</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>598</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>1903</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>3164</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>2501</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>3318</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>2206</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>3072</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>565</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>2296</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>2753</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>3116</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>2490</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>350</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>2297</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>2968</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <v>237</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <v>233</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <v>2264</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="3">
         <v>3085</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+    <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="3">
         <v>2501</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+    <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
+    <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
+    <row r="37" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="3">
         <v>3318</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
+    <row r="38" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="3">
         <v>380</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
+    <row r="39" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="3">
         <v>312</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
+    <row r="40" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="3">
         <v>2121</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
+    <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="3">
         <v>3006</v>
       </c>
     </row>
+    <row r="43" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="7:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="7:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="7:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="7:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="7:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="7:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="7:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="7:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="7:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" spans="7:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="7:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="7:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+    </row>
+    <row r="61" spans="7:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+    </row>
+    <row r="62" spans="7:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C1"/>
+  <autoFilter ref="A1:C41"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="3">
+        <v>3082</v>
+      </c>
+      <c r="D2" s="3">
+        <v>236</v>
+      </c>
+      <c r="E2" s="5">
+        <f>C2/SUM(C2:D2)</f>
+        <v>0.92887281494876428</v>
+      </c>
+      <c r="F2" s="5">
+        <f>C2/SUM(C2:C3)</f>
+        <v>0.89828038472748473</v>
+      </c>
+      <c r="G2" s="5">
+        <f>SUM(C2,D3)/SUM(C2:D3)</f>
+        <v>0.89946726241622277</v>
+      </c>
+      <c r="H2" s="5">
+        <f>2/(1/E2+1/F2)</f>
+        <v>0.91332049192472964</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="4">
-        <v>3082</v>
-      </c>
-      <c r="C2" s="4">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="C3" s="3">
         <v>349</v>
       </c>
-      <c r="C3" s="4">
+      <c r="D3" s="3">
         <v>2152</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="4">
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3">
         <v>3164</v>
       </c>
-      <c r="C6" s="4">
+      <c r="D4" s="3">
         <v>154</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="4">
+      <c r="E4" s="5">
+        <f t="shared" ref="E3:E21" si="0">C4/SUM(C4:D4)</f>
+        <v>0.95358649789029537</v>
+      </c>
+      <c r="F4" s="5">
+        <f>C4/SUM(C4:C5)</f>
+        <v>0.84104199893673581</v>
+      </c>
+      <c r="G4" s="5">
+        <f t="shared" ref="G3:G20" si="1">SUM(C4,D5)/SUM(C4:D5)</f>
+        <v>0.87076817322564015</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" ref="H3:H20" si="2">2/(1/E4+1/F4)</f>
+        <v>0.89378531073446332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3">
         <v>598</v>
       </c>
-      <c r="C7" s="4">
+      <c r="D5" s="3">
         <v>1903</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="4">
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3">
         <v>3318</v>
       </c>
-      <c r="C10" s="4">
+      <c r="D6" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="4">
+      <c r="E6" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F6" s="5">
+        <f>C6/SUM(C6:C7)</f>
+        <v>0.57020106547516758</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="1"/>
+        <v>0.57020106547516758</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="2"/>
+        <v>0.72627777169749375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3">
         <v>2501</v>
       </c>
-      <c r="C11" s="4">
+      <c r="D7" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="4">
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="3">
         <v>3072</v>
       </c>
-      <c r="C14" s="4">
+      <c r="D8" s="3">
         <v>246</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="4">
+      <c r="E8" s="5">
+        <f t="shared" si="0"/>
+        <v>0.92585895117540684</v>
+      </c>
+      <c r="F8" s="5">
+        <f>C8/SUM(C8:C9)</f>
+        <v>0.91238491238491237</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="1"/>
+        <v>0.90702869908919059</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="2"/>
+        <v>0.91907255048616321</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="3">
         <v>295</v>
       </c>
-      <c r="C15" s="4">
+      <c r="D9" s="3">
         <v>2206</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="4">
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3">
         <v>2753</v>
       </c>
-      <c r="C18" s="4">
+      <c r="D10" s="3">
         <v>565</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="4">
+      <c r="E10" s="5">
+        <f t="shared" si="0"/>
+        <v>0.82971669680530435</v>
+      </c>
+      <c r="F10" s="5">
+        <f>C10/SUM(C10:C11)</f>
+        <v>0.93069641649763357</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="1"/>
+        <v>0.86767485822306234</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" si="2"/>
+        <v>0.8773103887826641</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3">
         <v>205</v>
       </c>
-      <c r="C19" s="4">
+      <c r="D11" s="3">
         <v>2296</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="4">
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="3">
         <v>202</v>
       </c>
-      <c r="C22" s="4">
+      <c r="D12" s="3">
         <v>3116</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="4">
+      <c r="E12" s="5">
+        <f t="shared" si="0"/>
+        <v>6.0880048221820374E-2</v>
+      </c>
+      <c r="F12" s="5">
+        <f>C12/SUM(C12:C13)</f>
+        <v>0.94835680751173712</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="1"/>
+        <v>0.46262244371885203</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" si="2"/>
+        <v>0.11441517983574057</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="3">
         <v>11</v>
       </c>
-      <c r="C23" s="4">
+      <c r="D13" s="3">
         <v>2490</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="4">
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="3">
         <v>2968</v>
       </c>
-      <c r="C26" s="4">
+      <c r="D14" s="3">
         <v>350</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="4">
+      <c r="E14" s="5">
+        <f t="shared" si="0"/>
+        <v>0.89451476793248941</v>
+      </c>
+      <c r="F14" s="5">
+        <f>C14/SUM(C14:C15)</f>
+        <v>0.93568726355611598</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="1"/>
+        <v>0.90479463825399553</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" si="2"/>
+        <v>0.91463790446841298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="3">
         <v>204</v>
       </c>
-      <c r="C27" s="4">
+      <c r="D15" s="3">
         <v>2297</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+    <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="4">
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="3">
         <v>3085</v>
       </c>
-      <c r="C30" s="4">
+      <c r="D16" s="3">
         <v>233</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="4">
+      <c r="E16" s="5">
+        <f t="shared" si="0"/>
+        <v>0.92977697408077153</v>
+      </c>
+      <c r="F16" s="5">
+        <f>C16/SUM(C16:C17)</f>
+        <v>0.92865743527995182</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="1"/>
+        <v>0.91923010826602514</v>
+      </c>
+      <c r="H16" s="5">
+        <f t="shared" si="2"/>
+        <v>0.9292168674698793</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="3">
         <v>237</v>
       </c>
-      <c r="C31" s="4">
+      <c r="D17" s="3">
         <v>2264</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+    <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" s="4">
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="3">
         <v>3318</v>
       </c>
-      <c r="C34">
+      <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="4">
+      <c r="E18" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F18" s="5">
+        <f>C18/SUM(C18:C19)</f>
+        <v>0.57020106547516758</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" si="1"/>
+        <v>0.57020106547516758</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" si="2"/>
+        <v>0.72627777169749375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="3">
         <v>2501</v>
       </c>
-      <c r="C35" s="4">
+      <c r="D19" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
+    <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>23</v>
-      </c>
-      <c r="B38" s="4">
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="3">
         <v>3006</v>
       </c>
-      <c r="C38">
+      <c r="D20">
         <v>312</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>24</v>
-      </c>
-      <c r="B39" s="4">
+      <c r="E20" s="5">
+        <f t="shared" si="0"/>
+        <v>0.9059674502712477</v>
+      </c>
+      <c r="F20" s="5">
+        <f>C20/SUM(C20:C21)</f>
+        <v>0.88777318369757829</v>
+      </c>
+      <c r="G20" s="5">
+        <f t="shared" si="1"/>
+        <v>0.88107922323423271</v>
+      </c>
+      <c r="H20" s="5">
+        <f t="shared" si="2"/>
+        <v>0.89677804295942709</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="3">
         <v>380</v>
       </c>
-      <c r="C39" s="4">
+      <c r="D21" s="3">
         <v>2121</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="F2 F4 F6 F8 F10 F12 F14 F16 F18 F20" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/code/src/org/ebiquity/data/permAnalysis/resultsPermAnalysis.xlsx
+++ b/code/src/org/ebiquity/data/permAnalysis/resultsPermAnalysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15480" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15480" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Score" sheetId="5" r:id="rId1"/>
@@ -21,11 +21,12 @@
     <sheet name="ConfusionMatrix" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">ConfusionMatrix!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">ConfusionMatrix!$A$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Data 1'!$A$1:$C$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Data 2'!$A$1:$C$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">FScore!$A$1:$B$1</definedName>
   </definedNames>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="29">
   <si>
     <t>AdaBoost</t>
   </si>
@@ -656,8 +657,8 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="52">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -840,22 +841,22 @@
                   <c:v>Neural Net</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Nearest Neighbors</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Linear SVM</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>Nearest Neighbors</c:v>
+                <c:pt idx="3">
+                  <c:v>Logistic Regression</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>AdaBoost</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>RBF SVM</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Decision Tree</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Logistic Regression</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Dummy</c:v>
@@ -873,37 +874,37 @@
             <c:numRef>
               <c:f>FScore!$B$2:$B$11</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.919222116</c:v>
+                  <c:v>0.91905671</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.906909549</c:v>
+                  <c:v>0.91077184</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.905073798</c:v>
+                  <c:v>0.907105485</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.899147071</c:v>
+                  <c:v>0.903955002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.880862863</c:v>
+                  <c:v>0.893531068</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.868526048</c:v>
+                  <c:v>0.876412948</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.868321779</c:v>
+                  <c:v>0.875690417</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.414124359</c:v>
+                  <c:v>0.408707825</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.414124359</c:v>
+                  <c:v>0.408707825</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.329258246</c:v>
+                  <c:v>0.363381876</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -919,11 +920,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="1817119808"/>
-        <c:axId val="1817122128"/>
+        <c:axId val="227438592"/>
+        <c:axId val="227440912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1817119808"/>
+        <c:axId val="227438592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -966,7 +967,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1817122128"/>
+        <c:crossAx val="227440912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -974,7 +975,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1817122128"/>
+        <c:axId val="227440912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1025,7 +1026,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1817119808"/>
+        <c:crossAx val="227438592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1951,7 +1952,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1964,7 +1965,7 @@
       <c r="A1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1972,88 +1973,201 @@
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4">
-        <v>0.91923010800000005</v>
+      <c r="B2" s="5">
+        <v>0.91924398600000001</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0.90702869900000005</v>
+        <v>6</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.91082474199999997</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0.90479463800000004</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.90738831600000003</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0.89946726200000005</v>
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.904123711</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0.88107922299999997</v>
+        <v>0</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.89415807599999997</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="4">
-        <v>0.87076817299999998</v>
+      <c r="B7" s="5">
+        <v>0.87680412399999996</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0.86767485799999999</v>
+        <v>8</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0.87680412399999996</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="4">
-        <v>0.57020106500000001</v>
+      <c r="B9" s="5">
+        <v>0.56563573899999997</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
-        <v>0.57020106500000001</v>
+      <c r="B10" s="5">
+        <v>0.56563573899999997</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="4">
-        <v>0.46262244400000002</v>
+      <c r="B11" s="5">
+        <v>0.48213058399999997</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:B11">
+    <sortCondition descending="1" ref="B2:B11"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.91924398600000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.91082474199999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.90738831600000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.904123711</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.89415807599999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.87680412399999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0.87680412399999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.56563573899999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0.56563573899999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0.48213058399999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:B11">
+    <sortCondition descending="1" ref="B2:B11"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -2069,7 +2183,7 @@
       <c r="A1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2077,207 +2191,103 @@
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4">
-        <v>0.91923010800000005</v>
+      <c r="B2" s="5">
+        <v>0.91931911799999999</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0.90702869900000005</v>
+        <v>6</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.91075309400000004</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0.90479463800000004</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.90754879099999997</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0.89946726200000005</v>
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.90405309899999997</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0.88107922299999997</v>
+        <v>0</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.89513211199999998</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="4">
-        <v>0.87076817299999998</v>
+      <c r="B7" s="5">
+        <v>0.87890478599999999</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0.86767485799999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="4">
-        <v>0.57020106500000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0.57020106500000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="4">
-        <v>0.46262244400000002</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0.91921500599999995</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0.90692166200000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0.90649857599999994</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0.89952342500000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4">
-        <v>0.88089213399999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0.87718451799999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0.87560486900000001</v>
+      <c r="B8" s="5">
+        <v>0.87677195699999999</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="4">
-        <v>0.73165654999999996</v>
+      <c r="B9" s="5">
+        <v>0.73779683299999999</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="4">
-        <v>0.32512925500000001</v>
+      <c r="B10" s="5">
+        <v>0.31994378899999998</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="4">
-        <v>0.32512925500000001</v>
+      <c r="B11" s="5">
+        <v>0.31994378899999998</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:B23">
+    <sortCondition descending="1" ref="B2:B23"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -2285,87 +2295,146 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4">
-        <v>0.91922211600000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B2" s="5">
+        <v>0.91905671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.91077184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4">
-        <v>0.90690954899999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0.90507379799999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B4" s="5">
+        <v>0.90710548499999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.90395500200000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="4">
-        <v>0.89914707100000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="5">
+        <v>0.89353106800000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4">
-        <v>0.88086286300000005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="5">
+        <v>0.87641294800000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="4">
-        <v>0.86852604799999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0.86832177899999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B8" s="5">
+        <v>0.87569041700000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="4">
-        <v>0.414124359</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B9" s="5">
+        <v>0.40870782500000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
-        <v>0.414124359</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B10" s="5">
+        <v>0.40870782500000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="4">
-        <v>0.32925824599999998</v>
-      </c>
+      <c r="B11" s="5">
+        <v>0.36338187599999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="5"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B1">
+    <sortState ref="A2:B11">
+      <sortCondition descending="1" ref="B1:B11"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2375,7 +2444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2386,7 +2455,7 @@
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -2396,7 +2465,7 @@
       <c r="B1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2405,10 +2474,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0.91923010800000005</v>
+        <v>16</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.91931911799999999</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -2416,10 +2485,10 @@
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0.91923010800000005</v>
+        <v>19</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.91924398600000001</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -2427,10 +2496,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0.91922211600000003</v>
+        <v>14</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.91924398600000001</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -2438,186 +2507,186 @@
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.91921500599999995</v>
+        <v>18</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.91905671</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="4">
-        <v>0.90702869900000005</v>
+      <c r="C6" s="5">
+        <v>0.91082474199999997</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4">
-        <v>0.90702869900000005</v>
+      <c r="C7" s="5">
+        <v>0.91082474199999997</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0.90692166200000002</v>
+        <v>18</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.91077184</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0.90690954899999998</v>
+        <v>16</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.91075309400000004</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="4">
-        <v>0.90649857599999994</v>
+      <c r="C10" s="5">
+        <v>0.90754879099999997</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0.90507379799999998</v>
+        <v>19</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.90738831600000003</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0.90479463800000004</v>
+        <v>14</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.90738831600000003</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0.90479463800000004</v>
+        <v>18</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.90710548499999999</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0.89952342500000004</v>
+        <v>19</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.904123711</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0.89946726200000005</v>
+        <v>14</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.904123711</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0.89946726200000005</v>
+        <v>16</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.90405309899999997</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="4">
-        <v>0.89914707100000002</v>
+      <c r="C17" s="5">
+        <v>0.90395500200000001</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="4">
-        <v>0.88107922299999997</v>
+        <v>16</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.89513211199999998</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="4">
-        <v>0.88107922299999997</v>
+        <v>19</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.89415807599999997</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="4">
-        <v>0.88089213399999999</v>
+        <v>14</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.89415807599999997</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="4">
-        <v>0.88086286300000005</v>
+      <c r="C21" s="5">
+        <v>0.89353106800000004</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -2627,19 +2696,19 @@
       <c r="B22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="4">
-        <v>0.87718451799999997</v>
+      <c r="C22" s="5">
+        <v>0.87890478599999999</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="4">
-        <v>0.87560486900000001</v>
+        <v>19</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.87680412399999996</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -2647,65 +2716,65 @@
         <v>1</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="4">
-        <v>0.87076817299999998</v>
+        <v>14</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.87680412399999996</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="4">
-        <v>0.87076817299999998</v>
+        <v>19</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.87680412399999996</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="4">
-        <v>0.86852604799999999</v>
+        <v>14</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0.87680412399999996</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="4">
-        <v>0.86832177899999996</v>
+        <v>16</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0.87677195699999999</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="4">
-        <v>0.86767485799999999</v>
+        <v>18</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0.87641294800000002</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="4">
-        <v>0.86767485799999999</v>
+        <v>18</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0.87569041700000005</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -2715,8 +2784,8 @@
       <c r="B30" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="4">
-        <v>0.73165654999999996</v>
+      <c r="C30" s="5">
+        <v>0.73779683299999999</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -2726,8 +2795,8 @@
       <c r="B31" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="4">
-        <v>0.57020106500000001</v>
+      <c r="C31" s="5">
+        <v>0.56563573899999997</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -2737,8 +2806,8 @@
       <c r="B32" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="4">
-        <v>0.57020106500000001</v>
+      <c r="C32" s="5">
+        <v>0.56563573899999997</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -2748,8 +2817,8 @@
       <c r="B33" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="4">
-        <v>0.57020106500000001</v>
+      <c r="C33" s="5">
+        <v>0.56563573899999997</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -2759,8 +2828,8 @@
       <c r="B34" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="4">
-        <v>0.57020106500000001</v>
+      <c r="C34" s="5">
+        <v>0.56563573899999997</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -2770,8 +2839,8 @@
       <c r="B35" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="4">
-        <v>0.46262244400000002</v>
+      <c r="C35" s="5">
+        <v>0.48213058399999997</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -2781,8 +2850,8 @@
       <c r="B36" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="4">
-        <v>0.46262244400000002</v>
+      <c r="C36" s="5">
+        <v>0.48213058399999997</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -2792,8 +2861,8 @@
       <c r="B37" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="4">
-        <v>0.414124359</v>
+      <c r="C37" s="5">
+        <v>0.40870782500000002</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -2803,8 +2872,8 @@
       <c r="B38" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="4">
-        <v>0.414124359</v>
+      <c r="C38" s="5">
+        <v>0.40870782500000002</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -2814,8 +2883,8 @@
       <c r="B39" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="4">
-        <v>0.32925824599999998</v>
+      <c r="C39" s="5">
+        <v>0.36338187599999999</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -2825,8 +2894,8 @@
       <c r="B40" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="4">
-        <v>0.32512925500000001</v>
+      <c r="C40" s="5">
+        <v>0.31994378899999998</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -2836,8 +2905,8 @@
       <c r="B41" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="4">
-        <v>0.32512925500000001</v>
+      <c r="C41" s="5">
+        <v>0.31994378899999998</v>
       </c>
     </row>
   </sheetData>
@@ -2852,9 +2921,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2887,7 +2956,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="3">
-        <v>349</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -2898,7 +2967,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="3">
-        <v>236</v>
+        <v>409</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -2909,7 +2978,7 @@
         <v>17</v>
       </c>
       <c r="C4" s="3">
-        <v>2152</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -2920,7 +2989,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="3">
-        <v>3082</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -2931,7 +3000,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="3">
-        <v>598</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -2942,7 +3011,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="3">
-        <v>154</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -2953,7 +3022,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="3">
-        <v>1903</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -2964,7 +3033,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="3">
-        <v>3164</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -2975,7 +3044,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="3">
-        <v>2501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -2986,7 +3055,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="3">
-        <v>0</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -3008,7 +3077,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="3">
-        <v>3318</v>
+        <v>3292</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -3019,7 +3088,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="3">
-        <v>295</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -3030,7 +3099,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="3">
-        <v>246</v>
+        <v>327</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -3041,7 +3110,7 @@
         <v>17</v>
       </c>
       <c r="C16" s="3">
-        <v>2206</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -3052,7 +3121,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="3">
-        <v>3072</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -3063,7 +3132,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="3">
-        <v>205</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -3074,7 +3143,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="3">
-        <v>565</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -3085,7 +3154,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="3">
-        <v>2296</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -3096,7 +3165,7 @@
         <v>13</v>
       </c>
       <c r="C21" s="3">
-        <v>2753</v>
+        <v>3048</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -3107,7 +3176,7 @@
         <v>12</v>
       </c>
       <c r="C22" s="3">
-        <v>11</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -3118,7 +3187,7 @@
         <v>15</v>
       </c>
       <c r="C23" s="3">
-        <v>3116</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -3129,7 +3198,7 @@
         <v>17</v>
       </c>
       <c r="C24" s="3">
-        <v>2490</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -3140,7 +3209,7 @@
         <v>13</v>
       </c>
       <c r="C25" s="3">
-        <v>202</v>
+        <v>292</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -3151,7 +3220,7 @@
         <v>12</v>
       </c>
       <c r="C26" s="3">
-        <v>204</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -3162,7 +3231,7 @@
         <v>15</v>
       </c>
       <c r="C27" s="3">
-        <v>350</v>
+        <v>272</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -3173,7 +3242,7 @@
         <v>17</v>
       </c>
       <c r="C28" s="3">
-        <v>2297</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -3184,7 +3253,7 @@
         <v>13</v>
       </c>
       <c r="C29" s="3">
-        <v>2968</v>
+        <v>3045</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -3195,7 +3264,7 @@
         <v>12</v>
       </c>
       <c r="C30" s="3">
-        <v>237</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -3206,7 +3275,7 @@
         <v>15</v>
       </c>
       <c r="C31" s="3">
-        <v>233</v>
+        <v>280</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -3217,7 +3286,7 @@
         <v>17</v>
       </c>
       <c r="C32" s="3">
-        <v>2264</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3228,7 +3297,7 @@
         <v>13</v>
       </c>
       <c r="C33" s="3">
-        <v>3085</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3239,7 +3308,7 @@
         <v>12</v>
       </c>
       <c r="C34" s="3">
-        <v>2501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3250,7 +3319,7 @@
         <v>15</v>
       </c>
       <c r="C35" s="3">
-        <v>0</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3272,7 +3341,7 @@
         <v>13</v>
       </c>
       <c r="C37" s="3">
-        <v>3318</v>
+        <v>3292</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3283,7 +3352,7 @@
         <v>12</v>
       </c>
       <c r="C38" s="3">
-        <v>380</v>
+        <v>299</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3294,7 +3363,7 @@
         <v>15</v>
       </c>
       <c r="C39" s="3">
-        <v>312</v>
+        <v>418</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3305,7 +3374,7 @@
         <v>17</v>
       </c>
       <c r="C40" s="3">
-        <v>2121</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3316,91 +3385,254 @@
         <v>13</v>
       </c>
       <c r="C41" s="3">
-        <v>3006</v>
-      </c>
+        <v>2993</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
     </row>
     <row r="43" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
     </row>
     <row r="44" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
     </row>
     <row r="45" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
     </row>
     <row r="46" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
     </row>
     <row r="47" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
     </row>
     <row r="48" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
     </row>
-    <row r="49" spans="7:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
     </row>
-    <row r="50" spans="7:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
     </row>
-    <row r="51" spans="7:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
     </row>
-    <row r="52" spans="7:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
     </row>
-    <row r="53" spans="7:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
     </row>
-    <row r="54" spans="7:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
     </row>
-    <row r="55" spans="7:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
     </row>
-    <row r="56" spans="7:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
     </row>
-    <row r="57" spans="7:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
     </row>
-    <row r="58" spans="7:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
     </row>
-    <row r="59" spans="7:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
     </row>
-    <row r="60" spans="7:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
     </row>
-    <row r="61" spans="7:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
     </row>
-    <row r="62" spans="7:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
     </row>
+    <row r="63" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+    </row>
+    <row r="64" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+    </row>
+    <row r="65" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+    </row>
+    <row r="66" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+    </row>
+    <row r="67" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+    </row>
+    <row r="68" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+    </row>
+    <row r="69" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+    </row>
+    <row r="70" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+    </row>
+    <row r="71" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+    </row>
+    <row r="72" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+    </row>
+    <row r="73" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+    </row>
+    <row r="74" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+    </row>
+    <row r="75" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+    </row>
+    <row r="76" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+    </row>
+    <row r="77" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+    </row>
+    <row r="78" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+    </row>
+    <row r="79" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+    </row>
+    <row r="80" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+    </row>
+    <row r="81" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C41"/>
+  <sortState ref="A2:C81">
+    <sortCondition ref="C2:C81"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3413,7 +3645,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3422,10 +3654,10 @@
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3441,16 +3673,16 @@
       <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3462,40 +3694,38 @@
         <v>21</v>
       </c>
       <c r="C2" s="3">
-        <v>3082</v>
+        <v>3085</v>
       </c>
       <c r="D2" s="3">
-        <v>236</v>
-      </c>
-      <c r="E2" s="5">
+        <v>409</v>
+      </c>
+      <c r="E2" s="4">
         <f>C2/SUM(C2:D2)</f>
-        <v>0.92887281494876428</v>
-      </c>
-      <c r="F2" s="5">
+        <v>0.88294218660560964</v>
+      </c>
+      <c r="F2" s="4">
         <f>C2/SUM(C2:C3)</f>
-        <v>0.89828038472748473</v>
-      </c>
-      <c r="G2" s="5">
+        <v>0.93712029161603894</v>
+      </c>
+      <c r="G2" s="4">
         <f>SUM(C2,D3)/SUM(C2:D3)</f>
-        <v>0.89946726241622277</v>
-      </c>
-      <c r="H2" s="5">
+        <v>0.89415807560137461</v>
+      </c>
+      <c r="H2" s="4">
         <f>2/(1/E2+1/F2)</f>
-        <v>0.91332049192472964</v>
+        <v>0.90922487474211622</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="A3" s="3"/>
       <c r="B3" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="3">
-        <v>349</v>
+        <v>207</v>
       </c>
       <c r="D3" s="3">
-        <v>2152</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3506,40 +3736,38 @@
         <v>21</v>
       </c>
       <c r="C4" s="3">
-        <v>3164</v>
+        <v>3075</v>
       </c>
       <c r="D4" s="3">
-        <v>154</v>
-      </c>
-      <c r="E4" s="5">
-        <f t="shared" ref="E3:E21" si="0">C4/SUM(C4:D4)</f>
-        <v>0.95358649789029537</v>
-      </c>
-      <c r="F4" s="5">
+        <v>500</v>
+      </c>
+      <c r="E4" s="4">
+        <f>C4/SUM(C4:D4)</f>
+        <v>0.8601398601398601</v>
+      </c>
+      <c r="F4" s="4">
         <f>C4/SUM(C4:C5)</f>
-        <v>0.84104199893673581</v>
-      </c>
-      <c r="G4" s="5">
-        <f t="shared" ref="G3:G20" si="1">SUM(C4,D5)/SUM(C4:D5)</f>
-        <v>0.87076817322564015</v>
-      </c>
-      <c r="H4" s="5">
-        <f t="shared" ref="H3:H20" si="2">2/(1/E4+1/F4)</f>
-        <v>0.89378531073446332</v>
+        <v>0.93408262454434998</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" ref="G4:G20" si="0">SUM(C4,D5)/SUM(C4:D5)</f>
+        <v>0.8768041237113402</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" ref="H4:H20" si="1">2/(1/E4+1/F4)</f>
+        <v>0.89558759283529921</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="A5" s="3"/>
       <c r="B5" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="3">
-        <v>598</v>
+        <v>217</v>
       </c>
       <c r="D5" s="3">
-        <v>1903</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3550,37 +3778,35 @@
         <v>21</v>
       </c>
       <c r="C6" s="3">
-        <v>3318</v>
+        <v>3292</v>
       </c>
       <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
+        <v>2528</v>
+      </c>
+      <c r="E6" s="4">
+        <f>C6/SUM(C6:D6)</f>
+        <v>0.56563573883161511</v>
+      </c>
+      <c r="F6" s="4">
+        <f>C6/SUM(C6:C7)</f>
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F6" s="5">
-        <f>C6/SUM(C6:C7)</f>
-        <v>0.57020106547516758</v>
-      </c>
-      <c r="G6" s="5">
+        <v>0.56563573883161511</v>
+      </c>
+      <c r="H6" s="4">
         <f t="shared" si="1"/>
-        <v>0.57020106547516758</v>
-      </c>
-      <c r="H6" s="5">
-        <f t="shared" si="2"/>
-        <v>0.72627777169749375</v>
+        <v>0.72256365232660225</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A7" s="3"/>
       <c r="B7" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="3">
-        <v>2501</v>
+        <v>0</v>
       </c>
       <c r="D7" s="3">
         <v>0</v>
@@ -3594,40 +3820,38 @@
         <v>21</v>
       </c>
       <c r="C8" s="3">
-        <v>3072</v>
+        <v>3080</v>
       </c>
       <c r="D8" s="3">
-        <v>246</v>
-      </c>
-      <c r="E8" s="5">
+        <v>327</v>
+      </c>
+      <c r="E8" s="4">
+        <f>C8/SUM(C8:D8)</f>
+        <v>0.90402113296154973</v>
+      </c>
+      <c r="F8" s="4">
+        <f>C8/SUM(C8:C9)</f>
+        <v>0.93560145808019446</v>
+      </c>
+      <c r="G8" s="4">
         <f t="shared" si="0"/>
-        <v>0.92585895117540684</v>
-      </c>
-      <c r="F8" s="5">
-        <f>C8/SUM(C8:C9)</f>
-        <v>0.91238491238491237</v>
-      </c>
-      <c r="G8" s="5">
+        <v>0.90738831615120275</v>
+      </c>
+      <c r="H8" s="4">
         <f t="shared" si="1"/>
-        <v>0.90702869908919059</v>
-      </c>
-      <c r="H8" s="5">
-        <f t="shared" si="2"/>
-        <v>0.91907255048616321</v>
+        <v>0.91954022988505757</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A9" s="3"/>
       <c r="B9" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="3">
-        <v>295</v>
+        <v>212</v>
       </c>
       <c r="D9" s="3">
-        <v>2206</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3638,40 +3862,38 @@
         <v>21</v>
       </c>
       <c r="C10" s="3">
-        <v>2753</v>
+        <v>3048</v>
       </c>
       <c r="D10" s="3">
-        <v>565</v>
-      </c>
-      <c r="E10" s="5">
+        <v>314</v>
+      </c>
+      <c r="E10" s="4">
+        <f>C10/SUM(C10:D10)</f>
+        <v>0.9066032123735871</v>
+      </c>
+      <c r="F10" s="4">
+        <f>C10/SUM(C10:C11)</f>
+        <v>0.92588092345078976</v>
+      </c>
+      <c r="G10" s="4">
         <f t="shared" si="0"/>
-        <v>0.82971669680530435</v>
-      </c>
-      <c r="F10" s="5">
-        <f>C10/SUM(C10:C11)</f>
-        <v>0.93069641649763357</v>
-      </c>
-      <c r="G10" s="5">
+        <v>0.90412371134020619</v>
+      </c>
+      <c r="H10" s="4">
         <f t="shared" si="1"/>
-        <v>0.86767485822306234</v>
-      </c>
-      <c r="H10" s="5">
-        <f t="shared" si="2"/>
-        <v>0.8773103887826641</v>
+        <v>0.91614066726780874</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="A11" s="3"/>
       <c r="B11" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="3">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="D11" s="3">
-        <v>2296</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3682,40 +3904,38 @@
         <v>21</v>
       </c>
       <c r="C12" s="3">
-        <v>202</v>
+        <v>292</v>
       </c>
       <c r="D12" s="3">
-        <v>3116</v>
-      </c>
-      <c r="E12" s="5">
+        <v>14</v>
+      </c>
+      <c r="E12" s="4">
+        <f>C12/SUM(C12:D12)</f>
+        <v>0.95424836601307195</v>
+      </c>
+      <c r="F12" s="4">
+        <f>C12/SUM(C12:C13)</f>
+        <v>8.8699878493317133E-2</v>
+      </c>
+      <c r="G12" s="4">
         <f t="shared" si="0"/>
-        <v>6.0880048221820374E-2</v>
-      </c>
-      <c r="F12" s="5">
-        <f>C12/SUM(C12:C13)</f>
-        <v>0.94835680751173712</v>
-      </c>
-      <c r="G12" s="5">
+        <v>0.48213058419243987</v>
+      </c>
+      <c r="H12" s="4">
         <f t="shared" si="1"/>
-        <v>0.46262244371885203</v>
-      </c>
-      <c r="H12" s="5">
-        <f t="shared" si="2"/>
-        <v>0.11441517983574057</v>
+        <v>0.1623123957754308</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A13" s="3"/>
       <c r="B13" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="3">
-        <v>11</v>
+        <v>3000</v>
       </c>
       <c r="D13" s="3">
-        <v>2490</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3726,40 +3946,38 @@
         <v>21</v>
       </c>
       <c r="C14" s="3">
-        <v>2968</v>
+        <v>3045</v>
       </c>
       <c r="D14" s="3">
-        <v>350</v>
-      </c>
-      <c r="E14" s="5">
+        <v>272</v>
+      </c>
+      <c r="E14" s="4">
+        <f>C14/SUM(C14:D14)</f>
+        <v>0.91799819113656922</v>
+      </c>
+      <c r="F14" s="4">
+        <f>C14/SUM(C14:C15)</f>
+        <v>0.92496962332928312</v>
+      </c>
+      <c r="G14" s="4">
         <f t="shared" si="0"/>
-        <v>0.89451476793248941</v>
-      </c>
-      <c r="F14" s="5">
-        <f>C14/SUM(C14:C15)</f>
-        <v>0.93568726355611598</v>
-      </c>
-      <c r="G14" s="5">
+        <v>0.91082474226804122</v>
+      </c>
+      <c r="H14" s="4">
         <f t="shared" si="1"/>
-        <v>0.90479463825399553</v>
-      </c>
-      <c r="H14" s="5">
-        <f t="shared" si="2"/>
-        <v>0.91463790446841298</v>
+        <v>0.92147072174307765</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="A15" s="3"/>
       <c r="B15" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="3">
-        <v>204</v>
+        <v>247</v>
       </c>
       <c r="D15" s="3">
-        <v>2297</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3770,40 +3988,38 @@
         <v>21</v>
       </c>
       <c r="C16" s="3">
-        <v>3085</v>
+        <v>3102</v>
       </c>
       <c r="D16" s="3">
-        <v>233</v>
-      </c>
-      <c r="E16" s="5">
+        <v>280</v>
+      </c>
+      <c r="E16" s="4">
+        <f>C16/SUM(C16:D16)</f>
+        <v>0.91720875221762266</v>
+      </c>
+      <c r="F16" s="4">
+        <f>C16/SUM(C16:C17)</f>
+        <v>0.94228432563791009</v>
+      </c>
+      <c r="G16" s="4">
         <f t="shared" si="0"/>
-        <v>0.92977697408077153</v>
-      </c>
-      <c r="F16" s="5">
-        <f>C16/SUM(C16:C17)</f>
-        <v>0.92865743527995182</v>
-      </c>
-      <c r="G16" s="5">
+        <v>0.91924398625429549</v>
+      </c>
+      <c r="H16" s="4">
         <f t="shared" si="1"/>
-        <v>0.91923010826602514</v>
-      </c>
-      <c r="H16" s="5">
-        <f t="shared" si="2"/>
-        <v>0.9292168674698793</v>
+        <v>0.92957746478873249</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A17" s="3"/>
       <c r="B17" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="3">
-        <v>237</v>
+        <v>190</v>
       </c>
       <c r="D17" s="3">
-        <v>2264</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3814,37 +4030,35 @@
         <v>21</v>
       </c>
       <c r="C18" s="3">
-        <v>3318</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" s="5">
+        <v>3292</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2528</v>
+      </c>
+      <c r="E18" s="4">
+        <f>C18/SUM(C18:D18)</f>
+        <v>0.56563573883161511</v>
+      </c>
+      <c r="F18" s="4">
+        <f>C18/SUM(C18:C19)</f>
+        <v>1</v>
+      </c>
+      <c r="G18" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F18" s="5">
-        <f>C18/SUM(C18:C19)</f>
-        <v>0.57020106547516758</v>
-      </c>
-      <c r="G18" s="5">
+        <v>0.56563573883161511</v>
+      </c>
+      <c r="H18" s="4">
         <f t="shared" si="1"/>
-        <v>0.57020106547516758</v>
-      </c>
-      <c r="H18" s="5">
-        <f t="shared" si="2"/>
-        <v>0.72627777169749375</v>
+        <v>0.72256365232660225</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="A19" s="3"/>
       <c r="B19" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="3">
-        <v>2501</v>
+        <v>0</v>
       </c>
       <c r="D19" s="3">
         <v>0</v>
@@ -3858,44 +4072,42 @@
         <v>21</v>
       </c>
       <c r="C20" s="3">
-        <v>3006</v>
-      </c>
-      <c r="D20">
-        <v>312</v>
-      </c>
-      <c r="E20" s="5">
+        <v>2993</v>
+      </c>
+      <c r="D20" s="3">
+        <v>418</v>
+      </c>
+      <c r="E20" s="4">
+        <f>C20/SUM(C20:D20)</f>
+        <v>0.87745529170331282</v>
+      </c>
+      <c r="F20" s="4">
+        <f>C20/SUM(C20:C21)</f>
+        <v>0.90917375455650062</v>
+      </c>
+      <c r="G20" s="4">
         <f t="shared" si="0"/>
-        <v>0.9059674502712477</v>
-      </c>
-      <c r="F20" s="5">
-        <f>C20/SUM(C20:C21)</f>
-        <v>0.88777318369757829</v>
-      </c>
-      <c r="G20" s="5">
+        <v>0.8768041237113402</v>
+      </c>
+      <c r="H20" s="4">
         <f t="shared" si="1"/>
-        <v>0.88107922323423271</v>
-      </c>
-      <c r="H20" s="5">
-        <f t="shared" si="2"/>
-        <v>0.89677804295942709</v>
+        <v>0.89303297031180062</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="A21" s="3"/>
       <c r="B21" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="3">
-        <v>380</v>
+        <v>299</v>
       </c>
       <c r="D21" s="3">
-        <v>2121</v>
+        <v>2110</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1"/>
+  <autoFilter ref="A1:H1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="F2 F4 F6 F8 F10 F12 F14 F16 F18 F20" formulaRange="1"/>
